--- a/docs/SMF_8Story.xlsx
+++ b/docs/SMF_8Story.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17100" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17100"/>
   </bookViews>
   <sheets>
     <sheet name="W_bay" sheetId="8" r:id="rId1"/>
@@ -3271,8 +3271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10608,7 +10608,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C1" sqref="C1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11284,8 +11284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13028,7 +13028,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13078,25 +13078,33 @@
       <c r="A6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
